--- a/Combiner/BatteryChargerCombinerBoM.xlsx
+++ b/Combiner/BatteryChargerCombinerBoM.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BatteryChargerCombinerBoM" sheetId="1" r:id="rId1"/>
@@ -708,7 +708,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1554,12 +1554,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E56" sqref="E56"/>
+      <selection activeCell="F2" sqref="F2:I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1673,7 +1672,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="5" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2</v>
       </c>
@@ -1728,7 +1727,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="7" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>17</v>
       </c>
@@ -1754,7 +1753,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="8" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>15</v>
       </c>
@@ -1919,7 +1918,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="14" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2</v>
       </c>
@@ -1974,7 +1973,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="16" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>6</v>
       </c>
@@ -2000,7 +1999,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="17" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>6</v>
       </c>
@@ -2345,7 +2344,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="29" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>7</v>
       </c>
@@ -3108,105 +3107,54 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I55">
-    <filterColumn colId="6">
-      <filters blank="1">
-        <filter val="06035A220JAT2A"/>
-        <filter val="1264EY-100M=P3"/>
-        <filter val="150060BS75000"/>
-        <filter val="150060GS75000"/>
-        <filter val="150060RS75000"/>
-        <filter val="173950378"/>
-        <filter val="173950578"/>
-        <filter val="705450003"/>
-        <filter val="705450049"/>
-        <filter val="705450072"/>
-        <filter val="BAT750-TP"/>
-        <filter val="BQ24650RVAT"/>
-        <filter val="BQ28Z610DRZT"/>
-        <filter val="CC1210KKX5R9BB475"/>
-        <filter val="CC1210ZKY5VGBB106"/>
-        <filter val="CL10A225KL8NNNC"/>
-        <filter val="CL10B471KB8NNNC"/>
-        <filter val="DMN6040SSD-13"/>
-        <filter val="DMP3099L-7"/>
-        <filter val="DMP4047SSD-13"/>
-        <filter val="ED4164-63-ND"/>
-        <filter val="LMV358SG-13"/>
-        <filter val="MBR0580S1-7"/>
-        <filter val="MC74VHC1G07DTT1G"/>
-        <filter val="MIC5219-3.3YM5-TR"/>
-        <filter val="NTR5103NT1G"/>
-        <filter val="PA2512FKF070R002E"/>
-        <filter val="PE2512FKE070R04L"/>
-        <filter val="PMEG4020ETP,115"/>
-        <filter val="RC0603FR-07100RL"/>
-        <filter val="RC0603FR-0710ML"/>
-        <filter val="RC0603FR-0710RL"/>
-        <filter val="RC0603FR-0715KL"/>
-        <filter val="RC0603FR-07232KL"/>
-        <filter val="RC0603FR-07300KL"/>
-        <filter val="RC0603FR-075K1L"/>
-        <filter val="RC0603FR-0775KL"/>
-        <filter val="RC1206FR-0710RL"/>
-        <filter val="RMCF0603FT2R00"/>
-        <filter val="RMCF0603FT4R99"/>
-        <filter val="S2B-XH-A(LF)(SN)"/>
-        <filter val="S3B-XH-SM4-TB(LF)(SN)"/>
-        <filter val="SN74LVC1G06DBVR"/>
-        <filter val="STWD100NYWY3F"/>
-        <filter val="TCA9543ADR"/>
-        <filter val="TS7211AILT"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:I55" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1" display="https://www.digikey.com/product-detail/en/diodes-incorporated/MBR0580S1-7/MBR0580S1-7DICT-ND/5080371"/>
-    <hyperlink ref="G3" r:id="rId2" display="https://www.digikey.com/product-detail/en/micro-commercial-co/BAT750-TP/BAT750-TPMSCT-ND/7681652"/>
-    <hyperlink ref="G13" r:id="rId3" display="https://www.digikey.com/product-detail/en/murata-electronics-north-america/1264EY-100M=P3/490-10814-1-ND/5271556"/>
-    <hyperlink ref="G18" r:id="rId4" display="https://www.digikey.com/product-detail/en/on-semiconductor/NTR5103NT1G/NTR5103NT1GOSCT-ND/5801875"/>
-    <hyperlink ref="G26" r:id="rId5" display="https://www.digikey.com/product-detail/en/diodes-incorporated/DMP3099L-7/DMP3099L-7DICT-ND/5218217"/>
-    <hyperlink ref="G22" r:id="rId6" display="https://www.digikey.com/product-detail/en/jst-sales-america-inc/S3B-XH-SM4-TB-LF-SN/455-2263-1-ND/1651061"/>
-    <hyperlink ref="G33" r:id="rId7" display="https://www.digikey.com/product-detail/en/on-semiconductor/MC74VHC1G07DTT1G/MC74VHC1G07DTT1GOSCT-ND/1967117"/>
-    <hyperlink ref="G34" r:id="rId8" display="https://www.digikey.com/product-detail/en/texas-instruments/SN74LVC1G06DBVR/296-8483-1-ND/377451"/>
-    <hyperlink ref="G37" r:id="rId9" display="https://www.digikey.com/product-detail/en/texas-instruments/BQ24650RVAT/296-27699-1-ND/2352706"/>
-    <hyperlink ref="G38" r:id="rId10" display="https://www.digikey.com/product-detail/en/texas-instruments/BQ28Z610DRZT/296-43394-1-ND/5813465"/>
-    <hyperlink ref="G39" r:id="rId11" display="https://www.digikey.com/product-detail/en/diodes-incorporated/DMN6040SSD-13/DMN6040SSD-13DICT-ND/3481122"/>
-    <hyperlink ref="G40" r:id="rId12" display="https://www.digikey.com/product-detail/en/diodes-incorporated/DMP4047SSD-13/DMP4047SSD-13DICT-ND/5147416"/>
-    <hyperlink ref="G43" r:id="rId13" display="https://www.digikey.com/product-detail/en/molex-llc/0705450072/WM14782-ND/3302409"/>
-    <hyperlink ref="G44" r:id="rId14" display="https://www.digikey.com/product-detail/en/molex-connector-corporation/0705450003/WM4186-ND/455677"/>
-    <hyperlink ref="G42" r:id="rId15" display="https://www.digikey.com/product-detail/en/molex-connector-corporation/0705450049/WM14780-ND/3302397"/>
-    <hyperlink ref="G45" r:id="rId16" display="https://www.digikey.com/product-detail/en/diodes-incorporated/LMV358SG-13/LMV358SG-13DICT-ND/2182572"/>
-    <hyperlink ref="G46" r:id="rId17" display="https://www.digikey.com/product-detail/en/microchip-technology/MIC5219-3.3YM5-TR/576-1281-1-ND/771902"/>
-    <hyperlink ref="G47" r:id="rId18" display="https://www.digikey.com/product-detail/en/mill-max-manufacturing-corp/310-43-163-41-105000/ED4164-63-ND/4455145"/>
-    <hyperlink ref="G48" r:id="rId19" display="https://www.digikey.com/product-detail/en/jst-sales-america-inc/S2B-XH-A-LF-SN/455-2257-ND/1651055"/>
-    <hyperlink ref="G50" r:id="rId20" display="https://www.digikey.com/product-detail/en/nexperia-usa-inc/PMEG4020ETP115/1727-1730-1-ND/4581267"/>
-    <hyperlink ref="G51" r:id="rId21" display="https://www.digikey.com/product-detail/en/stmicroelectronics/STWD100NYWY3F/497-10058-1-ND/2175107"/>
-    <hyperlink ref="G52" r:id="rId22" display="https://www.digikey.com/product-detail/en/texas-instruments/TCA9543ADR/296-42064-1-ND/5246241"/>
-    <hyperlink ref="G53" r:id="rId23" display="https://www.digikey.com/product-detail/en/stmicroelectronics/TS7211AILT/497-3046-1-ND/634884"/>
-    <hyperlink ref="G55" r:id="rId24" display="https://www.digikey.com/product-detail/en/wurth-electronics-inc/173950378/732-8242-5-ND/5725366"/>
-    <hyperlink ref="G54" r:id="rId25" display="https://www.digikey.com/product-detail/en/wurth-electronics-inc/173950578/732-8243-5-ND/5725367"/>
-    <hyperlink ref="G6" r:id="rId26" display="https://www.digikey.com/product-detail/en/yageo/RC0603FR-07100RL/311-100HRCT-ND/729835"/>
-    <hyperlink ref="G9" r:id="rId27" display="https://www.digikey.com/product-detail/en/yageo/RC0603FR-0710ML/311-10.0MHRCT-ND/729828"/>
-    <hyperlink ref="G10" r:id="rId28" display="https://www.digikey.com/product-detail/en/yageo/RC0603FR-0710RL/311-10.0HRCT-ND/729826"/>
-    <hyperlink ref="G15" r:id="rId29" display="https://www.digikey.com/product-detail/en/yageo/RC0603FR-0715KL/311-15.0KHRCT-ND/729900"/>
-    <hyperlink ref="G20" r:id="rId30" display="https://www.digikey.com/product-detail/en/yageo/RC0603FR-07232KL/311-232KHRCT-ND/730019"/>
-    <hyperlink ref="G21" r:id="rId31" display="https://www.digikey.com/product-detail/en/stackpole-electronics-inc/RMCF0603FT2R00/RMCF0603FT2R00CT-ND/6053160"/>
-    <hyperlink ref="G25" r:id="rId32" display="https://www.digikey.com/product-detail/en/yageo/RC0603FR-07300KL/311-300KHRCT-ND/730092"/>
-    <hyperlink ref="G31" r:id="rId33" display="https://www.digikey.com/product-detail/en/yageo/RC0603FR-075K1L/311-5.10KHRCT-ND/730215"/>
-    <hyperlink ref="G32" r:id="rId34" display="https://www.digikey.com/product-detail/en/stackpole-electronics-inc/RMCF0603FT4R99/RMCF0603FT4R99CT-ND/2418080"/>
-    <hyperlink ref="G35" r:id="rId35" display="https://www.digikey.com/product-detail/en/yageo/RC0603FR-0775KL/311-75.0KHRCT-ND/730325"/>
-    <hyperlink ref="G11" r:id="rId36" display="https://www.digikey.com/product-detail/en/yageo/RC1206FR-0710RL/311-10.0FRCT-ND/731429"/>
-    <hyperlink ref="G27" r:id="rId37" display="https://www.digikey.com/product-detail/en/yageo/PE2512FKE070R04L/YAG2155CT-ND/5139603"/>
-    <hyperlink ref="G23" r:id="rId38" display="https://www.digikey.com/product-detail/en/yageo/PA2512FKF070R002E/YAG2137CT-ND/5139585"/>
-    <hyperlink ref="G30" r:id="rId39" display="https://www.digikey.com/product-detail/en/yageo/CC1210KKX5R9BB475/311-3533-1-ND/7164554"/>
-    <hyperlink ref="G12" r:id="rId40" display="https://www.digikey.com/product-detail/en/yageo/CC1210ZKY5VGBB106/311-3546-1-ND/7164567"/>
-    <hyperlink ref="G28" r:id="rId41" display="https://www.digikey.com/product-detail/en/samsung-electro-mechanics/CL10B471KB8NNNC/1276-1094-1-ND/3889180"/>
-    <hyperlink ref="G19" r:id="rId42" display="https://www.digikey.com/product-detail/en/avx-corporation/06035A220JAT2A/478-1167-1-ND/564199"/>
-    <hyperlink ref="G24" r:id="rId43" display="https://www.digikey.com/product-detail/en/samsung-electro-mechanics/CL10A225KL8NNNC/1276-6726-1-ND/5961585"/>
-    <hyperlink ref="G41" r:id="rId44" display="https://www.digikey.com/product-detail/en/wurth-electronics-inc/150060GS75000/732-4971-1-ND/4489896"/>
-    <hyperlink ref="G49" r:id="rId45" display="https://www.digikey.com/product-detail/en/wurth-electronics-inc/150060RS75000/732-4978-1-ND/4489899"/>
-    <hyperlink ref="G36" r:id="rId46" display="https://www.digikey.com/product-detail/en/wurth-electronics-inc/150060BS75000/732-4966-1-ND/4489893"/>
+    <hyperlink ref="G2" r:id="rId1" display="https://www.digikey.com/product-detail/en/diodes-incorporated/MBR0580S1-7/MBR0580S1-7DICT-ND/5080371" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="G3" r:id="rId2" display="https://www.digikey.com/product-detail/en/micro-commercial-co/BAT750-TP/BAT750-TPMSCT-ND/7681652" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="G13" r:id="rId3" display="https://www.digikey.com/product-detail/en/murata-electronics-north-america/1264EY-100M=P3/490-10814-1-ND/5271556" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="G18" r:id="rId4" display="https://www.digikey.com/product-detail/en/on-semiconductor/NTR5103NT1G/NTR5103NT1GOSCT-ND/5801875" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="G26" r:id="rId5" display="https://www.digikey.com/product-detail/en/diodes-incorporated/DMP3099L-7/DMP3099L-7DICT-ND/5218217" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="G22" r:id="rId6" display="https://www.digikey.com/product-detail/en/jst-sales-america-inc/S3B-XH-SM4-TB-LF-SN/455-2263-1-ND/1651061" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="G33" r:id="rId7" display="https://www.digikey.com/product-detail/en/on-semiconductor/MC74VHC1G07DTT1G/MC74VHC1G07DTT1GOSCT-ND/1967117" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="G34" r:id="rId8" display="https://www.digikey.com/product-detail/en/texas-instruments/SN74LVC1G06DBVR/296-8483-1-ND/377451" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="G37" r:id="rId9" display="https://www.digikey.com/product-detail/en/texas-instruments/BQ24650RVAT/296-27699-1-ND/2352706" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="G38" r:id="rId10" display="https://www.digikey.com/product-detail/en/texas-instruments/BQ28Z610DRZT/296-43394-1-ND/5813465" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="G39" r:id="rId11" display="https://www.digikey.com/product-detail/en/diodes-incorporated/DMN6040SSD-13/DMN6040SSD-13DICT-ND/3481122" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="G40" r:id="rId12" display="https://www.digikey.com/product-detail/en/diodes-incorporated/DMP4047SSD-13/DMP4047SSD-13DICT-ND/5147416" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="G43" r:id="rId13" display="https://www.digikey.com/product-detail/en/molex-llc/0705450072/WM14782-ND/3302409" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="G44" r:id="rId14" display="https://www.digikey.com/product-detail/en/molex-connector-corporation/0705450003/WM4186-ND/455677" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="G42" r:id="rId15" display="https://www.digikey.com/product-detail/en/molex-connector-corporation/0705450049/WM14780-ND/3302397" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="G45" r:id="rId16" display="https://www.digikey.com/product-detail/en/diodes-incorporated/LMV358SG-13/LMV358SG-13DICT-ND/2182572" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="G46" r:id="rId17" display="https://www.digikey.com/product-detail/en/microchip-technology/MIC5219-3.3YM5-TR/576-1281-1-ND/771902" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="G47" r:id="rId18" display="https://www.digikey.com/product-detail/en/mill-max-manufacturing-corp/310-43-163-41-105000/ED4164-63-ND/4455145" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="G48" r:id="rId19" display="https://www.digikey.com/product-detail/en/jst-sales-america-inc/S2B-XH-A-LF-SN/455-2257-ND/1651055" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="G50" r:id="rId20" display="https://www.digikey.com/product-detail/en/nexperia-usa-inc/PMEG4020ETP115/1727-1730-1-ND/4581267" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="G51" r:id="rId21" display="https://www.digikey.com/product-detail/en/stmicroelectronics/STWD100NYWY3F/497-10058-1-ND/2175107" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="G52" r:id="rId22" display="https://www.digikey.com/product-detail/en/texas-instruments/TCA9543ADR/296-42064-1-ND/5246241" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="G53" r:id="rId23" display="https://www.digikey.com/product-detail/en/stmicroelectronics/TS7211AILT/497-3046-1-ND/634884" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="G55" r:id="rId24" display="https://www.digikey.com/product-detail/en/wurth-electronics-inc/173950378/732-8242-5-ND/5725366" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="G54" r:id="rId25" display="https://www.digikey.com/product-detail/en/wurth-electronics-inc/173950578/732-8243-5-ND/5725367" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="G6" r:id="rId26" display="https://www.digikey.com/product-detail/en/yageo/RC0603FR-07100RL/311-100HRCT-ND/729835" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="G9" r:id="rId27" display="https://www.digikey.com/product-detail/en/yageo/RC0603FR-0710ML/311-10.0MHRCT-ND/729828" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="G10" r:id="rId28" display="https://www.digikey.com/product-detail/en/yageo/RC0603FR-0710RL/311-10.0HRCT-ND/729826" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="G15" r:id="rId29" display="https://www.digikey.com/product-detail/en/yageo/RC0603FR-0715KL/311-15.0KHRCT-ND/729900" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="G20" r:id="rId30" display="https://www.digikey.com/product-detail/en/yageo/RC0603FR-07232KL/311-232KHRCT-ND/730019" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="G21" r:id="rId31" display="https://www.digikey.com/product-detail/en/stackpole-electronics-inc/RMCF0603FT2R00/RMCF0603FT2R00CT-ND/6053160" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="G25" r:id="rId32" display="https://www.digikey.com/product-detail/en/yageo/RC0603FR-07300KL/311-300KHRCT-ND/730092" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="G31" r:id="rId33" display="https://www.digikey.com/product-detail/en/yageo/RC0603FR-075K1L/311-5.10KHRCT-ND/730215" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="G32" r:id="rId34" display="https://www.digikey.com/product-detail/en/stackpole-electronics-inc/RMCF0603FT4R99/RMCF0603FT4R99CT-ND/2418080" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="G35" r:id="rId35" display="https://www.digikey.com/product-detail/en/yageo/RC0603FR-0775KL/311-75.0KHRCT-ND/730325" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="G11" r:id="rId36" display="https://www.digikey.com/product-detail/en/yageo/RC1206FR-0710RL/311-10.0FRCT-ND/731429" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="G27" r:id="rId37" display="https://www.digikey.com/product-detail/en/yageo/PE2512FKE070R04L/YAG2155CT-ND/5139603" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="G23" r:id="rId38" display="https://www.digikey.com/product-detail/en/yageo/PA2512FKF070R002E/YAG2137CT-ND/5139585" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="G30" r:id="rId39" display="https://www.digikey.com/product-detail/en/yageo/CC1210KKX5R9BB475/311-3533-1-ND/7164554" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="G12" r:id="rId40" display="https://www.digikey.com/product-detail/en/yageo/CC1210ZKY5VGBB106/311-3546-1-ND/7164567" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="G28" r:id="rId41" display="https://www.digikey.com/product-detail/en/samsung-electro-mechanics/CL10B471KB8NNNC/1276-1094-1-ND/3889180" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="G19" r:id="rId42" display="https://www.digikey.com/product-detail/en/avx-corporation/06035A220JAT2A/478-1167-1-ND/564199" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="G24" r:id="rId43" display="https://www.digikey.com/product-detail/en/samsung-electro-mechanics/CL10A225KL8NNNC/1276-6726-1-ND/5961585" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="G41" r:id="rId44" display="https://www.digikey.com/product-detail/en/wurth-electronics-inc/150060GS75000/732-4971-1-ND/4489896" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="G49" r:id="rId45" display="https://www.digikey.com/product-detail/en/wurth-electronics-inc/150060RS75000/732-4978-1-ND/4489899" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="G36" r:id="rId46" display="https://www.digikey.com/product-detail/en/wurth-electronics-inc/150060BS75000/732-4966-1-ND/4489893" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId47"/>

--- a/Combiner/BatteryChargerCombinerBoM.xlsx
+++ b/Combiner/BatteryChargerCombinerBoM.xlsx
@@ -15,14 +15,14 @@
     <sheet name="BatteryChargerCombinerBoM" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">BatteryChargerCombinerBoM!$A$1:$I$55</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">BatteryChargerCombinerBoM!$A$1:$J$55</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="228">
   <si>
     <t>Qty</t>
   </si>
@@ -703,6 +703,9 @@
   </si>
   <si>
     <t>150060BS75000</t>
+  </si>
+  <si>
+    <t>Q3</t>
   </si>
 </sst>
 </file>
@@ -1555,1606 +1558,1826 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I55"/>
+  <dimension ref="A1:J55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:I2"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="L47" sqref="L47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="6" width="12.85546875" customWidth="1"/>
-    <col min="7" max="7" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.140625" customWidth="1"/>
+    <col min="3" max="3" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="7" width="12.85546875" customWidth="1"/>
+    <col min="8" max="8" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>3</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B2">
+        <f>A2*3</f>
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>7</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>8</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>171</v>
       </c>
-      <c r="I2" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J2" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="C3" t="s">
+      <c r="B3">
+        <f t="shared" ref="B3:B55" si="0">A3*3</f>
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
         <v>10</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>11</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>12</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>191</v>
       </c>
-      <c r="I3" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J3" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>4</v>
       </c>
-      <c r="C4" t="s">
+      <c r="B4">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
         <v>16</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>17</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>18</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>19</v>
       </c>
-      <c r="I4" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J4" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
         <v>20</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>16</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>17</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>21</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>19</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>199</v>
       </c>
-      <c r="I5" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J5" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>14</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="C6" t="s">
         <v>22</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>16</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>17</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>23</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>19</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="H6" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
         <v>204</v>
       </c>
-      <c r="I6" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J6" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>17</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7">
+        <f t="shared" si="0"/>
+        <v>51</v>
+      </c>
+      <c r="C7" t="s">
         <v>24</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>25</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>26</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>27</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>28</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>199</v>
       </c>
-      <c r="I7" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J7" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>15</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="C8" t="s">
         <v>29</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>16</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>17</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>30</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>19</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>199</v>
       </c>
-      <c r="I8" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J8" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>11</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="C9" t="s">
         <v>31</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>16</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>17</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>32</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>19</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="H9" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
         <v>204</v>
       </c>
-      <c r="I9" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J9" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="C10" t="s">
         <v>33</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>16</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>17</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>34</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>19</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="H10" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="H10" t="s">
+      <c r="I10" t="s">
         <v>204</v>
       </c>
-      <c r="I10" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J10" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="C11" t="s">
         <v>33</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>35</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>36</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>37</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>19</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="H11" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="H11" t="s">
+      <c r="I11" t="s">
         <v>204</v>
       </c>
-      <c r="I11" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J11" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>6</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="C12" t="s">
         <v>38</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>39</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>40</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
         <v>41</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>28</v>
       </c>
-      <c r="G12" s="2" t="s">
+      <c r="H12" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="I12" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J12" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="C13" t="s">
         <v>38</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>42</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>43</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
         <v>44</v>
       </c>
-      <c r="G13" s="2" t="s">
+      <c r="H13" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="H13" t="s">
+      <c r="I13" t="s">
         <v>167</v>
       </c>
-      <c r="I13" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J13" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="C14" t="s">
         <v>45</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>16</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
         <v>17</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
         <v>46</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
         <v>19</v>
       </c>
-      <c r="G14" t="s">
+      <c r="H14" t="s">
         <v>199</v>
       </c>
-      <c r="I14" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J14" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>5</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="C15" t="s">
         <v>47</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>16</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
         <v>17</v>
       </c>
-      <c r="E15" t="s">
+      <c r="F15" t="s">
         <v>48</v>
       </c>
-      <c r="F15" t="s">
+      <c r="G15" t="s">
         <v>19</v>
       </c>
-      <c r="G15" s="2" t="s">
+      <c r="H15" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="H15" t="s">
+      <c r="I15" t="s">
         <v>204</v>
       </c>
-      <c r="I15" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J15" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>6</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="C16" t="s">
         <v>49</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
         <v>16</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E16" t="s">
         <v>17</v>
       </c>
-      <c r="E16" t="s">
+      <c r="F16" t="s">
         <v>50</v>
       </c>
-      <c r="F16" t="s">
+      <c r="G16" t="s">
         <v>19</v>
       </c>
-      <c r="G16" t="s">
+      <c r="H16" t="s">
         <v>199</v>
       </c>
-      <c r="I16" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J16" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>6</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="C17" t="s">
         <v>51</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
         <v>25</v>
       </c>
-      <c r="D17" t="s">
+      <c r="E17" t="s">
         <v>26</v>
       </c>
-      <c r="E17" t="s">
+      <c r="F17" t="s">
         <v>52</v>
       </c>
-      <c r="F17" t="s">
+      <c r="G17" t="s">
         <v>28</v>
       </c>
-      <c r="G17" t="s">
+      <c r="H17" t="s">
         <v>199</v>
       </c>
-      <c r="I17" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J17" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="C18" t="s">
         <v>53</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
         <v>54</v>
       </c>
-      <c r="D18" t="s">
+      <c r="E18" t="s">
         <v>55</v>
       </c>
-      <c r="E18" t="s">
+      <c r="F18" t="s">
         <v>56</v>
       </c>
-      <c r="F18" t="s">
+      <c r="G18" t="s">
         <v>57</v>
       </c>
-      <c r="G18" s="2" t="s">
+      <c r="H18" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="H18" t="s">
+      <c r="I18" t="s">
         <v>169</v>
       </c>
-      <c r="I18" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J18" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="C19" t="s">
         <v>58</v>
       </c>
-      <c r="C19" t="s">
+      <c r="D19" t="s">
         <v>25</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E19" t="s">
         <v>26</v>
       </c>
-      <c r="E19" t="s">
+      <c r="F19" t="s">
         <v>59</v>
       </c>
-      <c r="F19" t="s">
+      <c r="G19" t="s">
         <v>28</v>
       </c>
-      <c r="G19" s="2" t="s">
+      <c r="H19" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="H19" t="s">
+      <c r="I19" t="s">
         <v>221</v>
       </c>
-      <c r="I19" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J19" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>2</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="C20" t="s">
         <v>60</v>
       </c>
-      <c r="C20" t="s">
+      <c r="D20" t="s">
         <v>16</v>
       </c>
-      <c r="D20" t="s">
+      <c r="E20" t="s">
         <v>17</v>
       </c>
-      <c r="E20" t="s">
+      <c r="F20" t="s">
         <v>61</v>
       </c>
-      <c r="F20" t="s">
+      <c r="G20" t="s">
         <v>19</v>
       </c>
-      <c r="G20" s="2" t="s">
+      <c r="H20" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="H20" t="s">
+      <c r="I20" t="s">
         <v>204</v>
       </c>
-      <c r="I20" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J20" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>2</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="C21" t="s">
         <v>62</v>
       </c>
-      <c r="C21" t="s">
+      <c r="D21" t="s">
         <v>16</v>
       </c>
-      <c r="D21" t="s">
+      <c r="E21" t="s">
         <v>17</v>
       </c>
-      <c r="E21" t="s">
+      <c r="F21" t="s">
         <v>63</v>
       </c>
-      <c r="F21" t="s">
+      <c r="G21" t="s">
         <v>19</v>
       </c>
-      <c r="G21" s="2" t="s">
+      <c r="H21" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="H21" t="s">
+      <c r="I21" t="s">
         <v>209</v>
       </c>
-      <c r="I21" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J21" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>2</v>
       </c>
-      <c r="B22" t="s">
-        <v>64</v>
+      <c r="B22">
+        <f t="shared" si="0"/>
+        <v>6</v>
       </c>
       <c r="C22" t="s">
         <v>64</v>
       </c>
       <c r="D22" t="s">
+        <v>64</v>
+      </c>
+      <c r="E22" t="s">
         <v>65</v>
       </c>
-      <c r="E22" t="s">
+      <c r="F22" t="s">
         <v>66</v>
       </c>
-      <c r="F22" t="s">
+      <c r="G22" t="s">
         <v>67</v>
       </c>
-      <c r="G22" s="2" t="s">
+      <c r="H22" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="H22" t="s">
+      <c r="I22" t="s">
         <v>173</v>
       </c>
-      <c r="I22" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J22" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>2</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="C23" t="s">
         <v>68</v>
       </c>
-      <c r="C23" t="s">
+      <c r="D23" t="s">
         <v>69</v>
       </c>
-      <c r="D23" t="s">
+      <c r="E23" t="s">
         <v>70</v>
       </c>
-      <c r="E23" t="s">
+      <c r="F23" t="s">
         <v>71</v>
       </c>
-      <c r="F23" t="s">
+      <c r="G23" t="s">
         <v>19</v>
       </c>
-      <c r="G23" s="2" t="s">
+      <c r="H23" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="H23" t="s">
+      <c r="I23" t="s">
         <v>204</v>
       </c>
-      <c r="I23" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J23" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>5</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="C24" t="s">
         <v>72</v>
       </c>
-      <c r="C24" t="s">
+      <c r="D24" t="s">
         <v>25</v>
       </c>
-      <c r="D24" t="s">
+      <c r="E24" t="s">
         <v>26</v>
       </c>
-      <c r="E24" t="s">
+      <c r="F24" t="s">
         <v>200</v>
       </c>
-      <c r="F24" t="s">
+      <c r="G24" t="s">
         <v>28</v>
       </c>
-      <c r="G24" s="2" t="s">
+      <c r="H24" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="H24" t="s">
+      <c r="I24" t="s">
         <v>222</v>
       </c>
-      <c r="I24" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J24" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>2</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="C25" t="s">
         <v>73</v>
       </c>
-      <c r="C25" t="s">
+      <c r="D25" t="s">
         <v>16</v>
       </c>
-      <c r="D25" t="s">
+      <c r="E25" t="s">
         <v>17</v>
       </c>
-      <c r="E25" t="s">
+      <c r="F25" t="s">
         <v>74</v>
       </c>
-      <c r="F25" t="s">
+      <c r="G25" t="s">
         <v>19</v>
       </c>
-      <c r="G25" s="2" t="s">
+      <c r="H25" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="H25" t="s">
+      <c r="I25" t="s">
         <v>204</v>
       </c>
-      <c r="I25" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J25" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>4</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="C26" t="s">
         <v>75</v>
       </c>
-      <c r="C26" t="s">
+      <c r="D26" t="s">
         <v>76</v>
       </c>
-      <c r="D26" t="s">
+      <c r="E26" t="s">
         <v>55</v>
       </c>
-      <c r="E26" t="s">
+      <c r="F26" t="s">
         <v>77</v>
       </c>
-      <c r="F26" t="s">
+      <c r="G26" t="s">
         <v>78</v>
       </c>
-      <c r="G26" s="2" t="s">
+      <c r="H26" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="H26" t="s">
+      <c r="I26" t="s">
         <v>171</v>
       </c>
-      <c r="I26" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J26" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>2</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="C27" t="s">
         <v>79</v>
       </c>
-      <c r="C27" t="s">
+      <c r="D27" t="s">
         <v>69</v>
       </c>
-      <c r="D27" t="s">
+      <c r="E27" t="s">
         <v>70</v>
       </c>
-      <c r="E27" t="s">
+      <c r="F27" t="s">
         <v>80</v>
       </c>
-      <c r="F27" t="s">
+      <c r="G27" t="s">
         <v>19</v>
       </c>
-      <c r="G27" s="2" t="s">
+      <c r="H27" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="H27" t="s">
+      <c r="I27" t="s">
         <v>204</v>
       </c>
-      <c r="I27" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J27" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>1</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="C28" t="s">
         <v>81</v>
       </c>
-      <c r="C28" t="s">
+      <c r="D28" t="s">
         <v>25</v>
       </c>
-      <c r="D28" t="s">
+      <c r="E28" t="s">
         <v>26</v>
       </c>
-      <c r="E28" t="s">
+      <c r="F28" t="s">
         <v>82</v>
       </c>
-      <c r="F28" t="s">
+      <c r="G28" t="s">
         <v>28</v>
       </c>
-      <c r="G28" s="2" t="s">
+      <c r="H28" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="H28" t="s">
+      <c r="I28" t="s">
         <v>222</v>
       </c>
-      <c r="I28" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J28" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>7</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="C29" t="s">
         <v>83</v>
       </c>
-      <c r="C29" t="s">
+      <c r="D29" t="s">
         <v>16</v>
       </c>
-      <c r="D29" t="s">
+      <c r="E29" t="s">
         <v>17</v>
       </c>
-      <c r="E29" t="s">
+      <c r="F29" t="s">
         <v>84</v>
       </c>
-      <c r="F29" t="s">
+      <c r="G29" t="s">
         <v>19</v>
       </c>
-      <c r="G29" t="s">
+      <c r="H29" t="s">
         <v>199</v>
       </c>
-      <c r="I29" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J29" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>2</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="C30" t="s">
         <v>85</v>
       </c>
-      <c r="C30" t="s">
+      <c r="D30" t="s">
         <v>39</v>
       </c>
-      <c r="D30" t="s">
+      <c r="E30" t="s">
         <v>40</v>
       </c>
-      <c r="E30" t="s">
+      <c r="F30" t="s">
         <v>86</v>
       </c>
-      <c r="F30" t="s">
+      <c r="G30" t="s">
         <v>28</v>
       </c>
-      <c r="G30" s="2" t="s">
+      <c r="H30" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="I30" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J30" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>4</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="C31" t="s">
         <v>87</v>
       </c>
-      <c r="C31" t="s">
+      <c r="D31" t="s">
         <v>16</v>
       </c>
-      <c r="D31" t="s">
+      <c r="E31" t="s">
         <v>17</v>
       </c>
-      <c r="E31" t="s">
+      <c r="F31" t="s">
         <v>88</v>
       </c>
-      <c r="F31" t="s">
+      <c r="G31" t="s">
         <v>19</v>
       </c>
-      <c r="G31" s="2" t="s">
+      <c r="H31" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="H31" t="s">
+      <c r="I31" t="s">
         <v>204</v>
       </c>
-      <c r="I31" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J31" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>2</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="C32" t="s">
         <v>89</v>
       </c>
-      <c r="C32" t="s">
+      <c r="D32" t="s">
         <v>16</v>
       </c>
-      <c r="D32" t="s">
+      <c r="E32" t="s">
         <v>17</v>
       </c>
-      <c r="E32" t="s">
+      <c r="F32" t="s">
         <v>90</v>
       </c>
-      <c r="F32" t="s">
+      <c r="G32" t="s">
         <v>19</v>
       </c>
-      <c r="G32" s="2" t="s">
+      <c r="H32" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="H32" t="s">
+      <c r="I32" t="s">
         <v>209</v>
       </c>
-      <c r="I32" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J32" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>1</v>
       </c>
-      <c r="B33" t="s">
-        <v>91</v>
+      <c r="B33">
+        <f t="shared" si="0"/>
+        <v>3</v>
       </c>
       <c r="C33" t="s">
         <v>91</v>
       </c>
       <c r="D33" t="s">
+        <v>91</v>
+      </c>
+      <c r="E33" t="s">
         <v>92</v>
       </c>
-      <c r="E33" t="s">
+      <c r="F33" t="s">
         <v>93</v>
       </c>
-      <c r="F33" t="s">
+      <c r="G33" t="s">
         <v>94</v>
       </c>
-      <c r="G33" s="2" t="s">
+      <c r="H33" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="H33" t="s">
+      <c r="I33" t="s">
         <v>169</v>
       </c>
-      <c r="I33" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J33" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>4</v>
       </c>
-      <c r="B34" t="s">
-        <v>95</v>
+      <c r="B34">
+        <f t="shared" si="0"/>
+        <v>12</v>
       </c>
       <c r="C34" t="s">
         <v>95</v>
       </c>
       <c r="D34" t="s">
+        <v>95</v>
+      </c>
+      <c r="E34" t="s">
         <v>92</v>
       </c>
-      <c r="E34" t="s">
+      <c r="F34" t="s">
         <v>96</v>
       </c>
-      <c r="F34" t="s">
+      <c r="G34" t="s">
         <v>97</v>
       </c>
-      <c r="G34" s="2" t="s">
+      <c r="H34" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="H34" t="s">
+      <c r="I34" t="s">
         <v>176</v>
       </c>
-      <c r="I34" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J34" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>2</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="C35" t="s">
         <v>98</v>
       </c>
-      <c r="C35" t="s">
+      <c r="D35" t="s">
         <v>16</v>
       </c>
-      <c r="D35" t="s">
+      <c r="E35" t="s">
         <v>17</v>
       </c>
-      <c r="E35" t="s">
+      <c r="F35" t="s">
         <v>99</v>
       </c>
-      <c r="F35" t="s">
+      <c r="G35" t="s">
         <v>19</v>
       </c>
-      <c r="G35" s="2" t="s">
+      <c r="H35" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="H35" t="s">
+      <c r="I35" t="s">
         <v>204</v>
       </c>
-      <c r="I35" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J35" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>5</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="C36" t="s">
         <v>100</v>
       </c>
-      <c r="C36" t="s">
+      <c r="D36" t="s">
         <v>13</v>
       </c>
-      <c r="D36" t="s">
+      <c r="E36" t="s">
         <v>14</v>
       </c>
-      <c r="E36" t="s">
+      <c r="F36" t="s">
         <v>165</v>
       </c>
-      <c r="F36" t="s">
+      <c r="G36" t="s">
         <v>15</v>
       </c>
-      <c r="G36" s="2" t="s">
+      <c r="H36" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="H36" t="s">
+      <c r="I36" t="s">
         <v>196</v>
       </c>
-      <c r="I36" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J36" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>2</v>
       </c>
-      <c r="B37" t="s">
-        <v>101</v>
+      <c r="B37">
+        <f t="shared" si="0"/>
+        <v>6</v>
       </c>
       <c r="C37" t="s">
         <v>101</v>
       </c>
       <c r="D37" t="s">
+        <v>101</v>
+      </c>
+      <c r="E37" t="s">
         <v>102</v>
       </c>
-      <c r="E37" t="s">
+      <c r="F37" t="s">
         <v>103</v>
       </c>
-      <c r="F37" t="s">
+      <c r="G37" t="s">
         <v>104</v>
       </c>
-      <c r="G37" s="2" t="s">
+      <c r="H37" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="H37" t="s">
+      <c r="I37" t="s">
         <v>176</v>
       </c>
-      <c r="I37" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J37" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>2</v>
       </c>
-      <c r="B38" t="s">
-        <v>105</v>
+      <c r="B38">
+        <f t="shared" si="0"/>
+        <v>6</v>
       </c>
       <c r="C38" t="s">
         <v>105</v>
       </c>
       <c r="D38" t="s">
+        <v>105</v>
+      </c>
+      <c r="E38" t="s">
         <v>106</v>
       </c>
-      <c r="E38" t="s">
+      <c r="F38" t="s">
         <v>107</v>
       </c>
-      <c r="F38" t="s">
+      <c r="G38" t="s">
         <v>108</v>
       </c>
-      <c r="G38" s="2" t="s">
+      <c r="H38" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="H38" t="s">
+      <c r="I38" t="s">
         <v>176</v>
       </c>
-      <c r="I38" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J38" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>4</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="C39" t="s">
         <v>109</v>
       </c>
-      <c r="C39" t="s">
+      <c r="D39" t="s">
         <v>110</v>
       </c>
-      <c r="D39" t="s">
+      <c r="E39" t="s">
         <v>111</v>
       </c>
-      <c r="E39" t="s">
+      <c r="F39" t="s">
         <v>112</v>
       </c>
-      <c r="F39" t="s">
+      <c r="G39" t="s">
         <v>113</v>
       </c>
-      <c r="G39" s="2" t="s">
+      <c r="H39" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="H39" t="s">
+      <c r="I39" t="s">
         <v>171</v>
       </c>
-      <c r="I39" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J39" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>1</v>
       </c>
-      <c r="B40" t="s">
-        <v>114</v>
+      <c r="B40">
+        <f t="shared" si="0"/>
+        <v>3</v>
       </c>
       <c r="C40" t="s">
         <v>114</v>
       </c>
       <c r="D40" t="s">
+        <v>114</v>
+      </c>
+      <c r="E40" t="s">
         <v>115</v>
       </c>
-      <c r="E40" t="s">
+      <c r="F40" t="s">
         <v>116</v>
       </c>
-      <c r="F40" t="s">
+      <c r="G40" t="s">
         <v>117</v>
       </c>
-      <c r="G40" s="2" t="s">
+      <c r="H40" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="H40" t="s">
+      <c r="I40" t="s">
         <v>171</v>
       </c>
-      <c r="I40" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J40" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>1</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="C41" t="s">
         <v>118</v>
       </c>
-      <c r="C41" t="s">
+      <c r="D41" t="s">
         <v>13</v>
       </c>
-      <c r="D41" t="s">
+      <c r="E41" t="s">
         <v>14</v>
       </c>
-      <c r="E41" t="s">
+      <c r="F41" t="s">
         <v>119</v>
       </c>
-      <c r="F41" t="s">
+      <c r="G41" t="s">
         <v>15</v>
       </c>
-      <c r="G41" s="2" t="s">
+      <c r="H41" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="H41" t="s">
+      <c r="I41" t="s">
         <v>196</v>
       </c>
-      <c r="I41" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J41" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>1</v>
       </c>
-      <c r="B42" t="s">
-        <v>120</v>
+      <c r="B42">
+        <f t="shared" si="0"/>
+        <v>3</v>
       </c>
       <c r="C42" t="s">
         <v>120</v>
       </c>
       <c r="D42" t="s">
+        <v>120</v>
+      </c>
+      <c r="E42" t="s">
         <v>121</v>
       </c>
-      <c r="E42" t="s">
+      <c r="F42" t="s">
         <v>122</v>
       </c>
-      <c r="F42" t="s">
+      <c r="G42" t="s">
         <v>123</v>
       </c>
-      <c r="G42" s="2">
+      <c r="H42" s="2">
         <v>705450049</v>
       </c>
-      <c r="H42" t="s">
+      <c r="I42" t="s">
         <v>178</v>
       </c>
-      <c r="I42" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J42" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>3</v>
       </c>
-      <c r="B43" t="s">
-        <v>124</v>
+      <c r="B43">
+        <f t="shared" si="0"/>
+        <v>9</v>
       </c>
       <c r="C43" t="s">
         <v>124</v>
       </c>
       <c r="D43" t="s">
+        <v>124</v>
+      </c>
+      <c r="E43" t="s">
         <v>125</v>
       </c>
-      <c r="E43" t="s">
+      <c r="F43" t="s">
         <v>126</v>
       </c>
-      <c r="F43" t="s">
+      <c r="G43" t="s">
         <v>123</v>
       </c>
-      <c r="G43" s="2">
+      <c r="H43" s="2">
         <v>705450072</v>
       </c>
-      <c r="H43" t="s">
+      <c r="I43" t="s">
         <v>178</v>
       </c>
-      <c r="I43" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J43" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>3</v>
       </c>
-      <c r="B44" t="s">
-        <v>127</v>
+      <c r="B44">
+        <f t="shared" si="0"/>
+        <v>9</v>
       </c>
       <c r="C44" t="s">
         <v>127</v>
       </c>
       <c r="D44" t="s">
+        <v>127</v>
+      </c>
+      <c r="E44" t="s">
         <v>128</v>
       </c>
-      <c r="E44" t="s">
+      <c r="F44" t="s">
         <v>129</v>
       </c>
-      <c r="F44" t="s">
+      <c r="G44" t="s">
         <v>123</v>
       </c>
-      <c r="G44" s="2">
+      <c r="H44" s="2">
         <v>705450003</v>
       </c>
-      <c r="H44" t="s">
+      <c r="I44" t="s">
         <v>178</v>
       </c>
-      <c r="I44" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J44" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>1</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B45">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="C45" t="s">
         <v>130</v>
       </c>
-      <c r="C45" t="s">
+      <c r="D45" t="s">
         <v>131</v>
       </c>
-      <c r="D45" t="s">
+      <c r="E45" t="s">
         <v>115</v>
       </c>
-      <c r="E45" t="s">
+      <c r="F45" t="s">
         <v>132</v>
       </c>
-      <c r="F45" t="s">
+      <c r="G45" t="s">
         <v>133</v>
       </c>
-      <c r="G45" s="2" t="s">
+      <c r="H45" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="H45" t="s">
+      <c r="I45" t="s">
         <v>171</v>
       </c>
-      <c r="I45" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J45" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>1</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B46">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="C46" t="s">
         <v>134</v>
       </c>
-      <c r="C46" t="s">
+      <c r="D46" t="s">
         <v>135</v>
       </c>
-      <c r="D46" t="s">
+      <c r="E46" t="s">
         <v>92</v>
       </c>
-      <c r="E46" t="s">
+      <c r="F46" t="s">
         <v>136</v>
       </c>
-      <c r="F46" t="s">
+      <c r="G46" t="s">
         <v>137</v>
       </c>
-      <c r="G46" s="2" t="s">
+      <c r="H46" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="H46" t="s">
+      <c r="I46" t="s">
         <v>182</v>
       </c>
-      <c r="I46" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J46" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>1</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B47">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="C47" t="s">
         <v>183</v>
-      </c>
-      <c r="C47" t="s">
-        <v>138</v>
       </c>
       <c r="D47" t="s">
         <v>138</v>
       </c>
       <c r="E47" t="s">
+        <v>138</v>
+      </c>
+      <c r="F47" t="s">
         <v>139</v>
       </c>
-      <c r="F47" t="s">
+      <c r="G47" t="s">
         <v>187</v>
       </c>
-      <c r="G47" s="2" t="s">
+      <c r="H47" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="H47" t="s">
+      <c r="I47" t="s">
         <v>185</v>
       </c>
-      <c r="I47" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J47" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>1</v>
       </c>
-      <c r="B48" t="s">
-        <v>140</v>
+      <c r="B48">
+        <f t="shared" si="0"/>
+        <v>3</v>
       </c>
       <c r="C48" t="s">
         <v>140</v>
       </c>
       <c r="D48" t="s">
+        <v>140</v>
+      </c>
+      <c r="E48" t="s">
         <v>141</v>
       </c>
-      <c r="E48" t="s">
+      <c r="F48" t="s">
         <v>142</v>
       </c>
-      <c r="G48" s="2" t="s">
+      <c r="H48" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="H48" t="s">
+      <c r="I48" t="s">
         <v>173</v>
       </c>
-      <c r="I48" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J48" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>4</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B49">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="C49" t="s">
         <v>143</v>
       </c>
-      <c r="C49" t="s">
+      <c r="D49" t="s">
         <v>13</v>
       </c>
-      <c r="D49" t="s">
+      <c r="E49" t="s">
         <v>14</v>
       </c>
-      <c r="E49" t="s">
+      <c r="F49" t="s">
         <v>144</v>
       </c>
-      <c r="F49" t="s">
+      <c r="G49" t="s">
         <v>15</v>
       </c>
-      <c r="G49" s="2" t="s">
+      <c r="H49" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="H49" t="s">
+      <c r="I49" t="s">
         <v>196</v>
       </c>
-      <c r="I49" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J49" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>2</v>
       </c>
-      <c r="B50" t="s">
-        <v>145</v>
+      <c r="B50">
+        <f t="shared" si="0"/>
+        <v>6</v>
       </c>
       <c r="C50" t="s">
         <v>145</v>
       </c>
       <c r="D50" t="s">
+        <v>145</v>
+      </c>
+      <c r="E50" t="s">
         <v>146</v>
       </c>
-      <c r="E50" t="s">
+      <c r="F50" t="s">
         <v>147</v>
       </c>
-      <c r="G50" s="2" t="s">
+      <c r="H50" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="H50" t="s">
+      <c r="I50" t="s">
         <v>190</v>
       </c>
-      <c r="I50" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J50" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>1</v>
       </c>
-      <c r="B51" t="s">
-        <v>148</v>
+      <c r="B51">
+        <f t="shared" si="0"/>
+        <v>3</v>
       </c>
       <c r="C51" t="s">
         <v>148</v>
       </c>
       <c r="D51" t="s">
+        <v>148</v>
+      </c>
+      <c r="E51" t="s">
         <v>149</v>
       </c>
-      <c r="E51" t="s">
+      <c r="F51" t="s">
         <v>150</v>
       </c>
-      <c r="G51" s="2" t="s">
+      <c r="H51" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="H51" t="s">
+      <c r="I51" t="s">
         <v>193</v>
       </c>
-      <c r="I51" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J51" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>1</v>
       </c>
-      <c r="B52" t="s">
-        <v>151</v>
+      <c r="B52">
+        <f t="shared" si="0"/>
+        <v>3</v>
       </c>
       <c r="C52" t="s">
         <v>151</v>
       </c>
       <c r="D52" t="s">
+        <v>151</v>
+      </c>
+      <c r="E52" t="s">
         <v>152</v>
       </c>
-      <c r="E52" t="s">
+      <c r="F52" t="s">
         <v>153</v>
       </c>
-      <c r="F52" t="s">
+      <c r="G52" t="s">
         <v>154</v>
       </c>
-      <c r="G52" s="2" t="s">
+      <c r="H52" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="H52" t="s">
+      <c r="I52" t="s">
         <v>176</v>
       </c>
-      <c r="I52" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J52" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>1</v>
       </c>
-      <c r="B53" t="s">
-        <v>155</v>
+      <c r="B53">
+        <f t="shared" si="0"/>
+        <v>3</v>
       </c>
       <c r="C53" t="s">
         <v>155</v>
       </c>
       <c r="D53" t="s">
+        <v>155</v>
+      </c>
+      <c r="E53" t="s">
         <v>149</v>
       </c>
-      <c r="E53" t="s">
+      <c r="F53" t="s">
         <v>156</v>
       </c>
-      <c r="F53" t="s">
+      <c r="G53" t="s">
         <v>157</v>
       </c>
-      <c r="G53" s="2" t="s">
+      <c r="H53" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="H53" t="s">
+      <c r="I53" t="s">
         <v>193</v>
       </c>
-      <c r="I53" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J53" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>1</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B54">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="C54" t="s">
         <v>158</v>
       </c>
-      <c r="C54" t="s">
+      <c r="D54" t="s">
         <v>197</v>
       </c>
-      <c r="D54" t="s">
+      <c r="E54" t="s">
         <v>158</v>
       </c>
-      <c r="E54" t="s">
+      <c r="F54" t="s">
         <v>159</v>
       </c>
-      <c r="G54" s="2">
+      <c r="H54" s="2">
         <v>173950578</v>
       </c>
-      <c r="H54" t="s">
+      <c r="I54" t="s">
         <v>196</v>
       </c>
-      <c r="I54" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J54" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>1</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B55">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="C55" t="s">
         <v>158</v>
       </c>
-      <c r="C55" t="s">
+      <c r="D55" t="s">
         <v>198</v>
       </c>
-      <c r="D55" t="s">
+      <c r="E55" t="s">
         <v>158</v>
       </c>
-      <c r="E55" t="s">
+      <c r="F55" t="s">
         <v>160</v>
       </c>
-      <c r="G55" s="2">
+      <c r="H55" s="2">
         <v>173950378</v>
       </c>
-      <c r="H55" t="s">
+      <c r="I55" t="s">
         <v>196</v>
       </c>
-      <c r="I55" t="s">
+      <c r="J55" t="s">
         <v>201</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I55" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:J55" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1" display="https://www.digikey.com/product-detail/en/diodes-incorporated/MBR0580S1-7/MBR0580S1-7DICT-ND/5080371" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="G3" r:id="rId2" display="https://www.digikey.com/product-detail/en/micro-commercial-co/BAT750-TP/BAT750-TPMSCT-ND/7681652" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="G13" r:id="rId3" display="https://www.digikey.com/product-detail/en/murata-electronics-north-america/1264EY-100M=P3/490-10814-1-ND/5271556" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="G18" r:id="rId4" display="https://www.digikey.com/product-detail/en/on-semiconductor/NTR5103NT1G/NTR5103NT1GOSCT-ND/5801875" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="G26" r:id="rId5" display="https://www.digikey.com/product-detail/en/diodes-incorporated/DMP3099L-7/DMP3099L-7DICT-ND/5218217" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="G22" r:id="rId6" display="https://www.digikey.com/product-detail/en/jst-sales-america-inc/S3B-XH-SM4-TB-LF-SN/455-2263-1-ND/1651061" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="G33" r:id="rId7" display="https://www.digikey.com/product-detail/en/on-semiconductor/MC74VHC1G07DTT1G/MC74VHC1G07DTT1GOSCT-ND/1967117" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="G34" r:id="rId8" display="https://www.digikey.com/product-detail/en/texas-instruments/SN74LVC1G06DBVR/296-8483-1-ND/377451" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="G37" r:id="rId9" display="https://www.digikey.com/product-detail/en/texas-instruments/BQ24650RVAT/296-27699-1-ND/2352706" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="G38" r:id="rId10" display="https://www.digikey.com/product-detail/en/texas-instruments/BQ28Z610DRZT/296-43394-1-ND/5813465" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="G39" r:id="rId11" display="https://www.digikey.com/product-detail/en/diodes-incorporated/DMN6040SSD-13/DMN6040SSD-13DICT-ND/3481122" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="G40" r:id="rId12" display="https://www.digikey.com/product-detail/en/diodes-incorporated/DMP4047SSD-13/DMP4047SSD-13DICT-ND/5147416" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="G43" r:id="rId13" display="https://www.digikey.com/product-detail/en/molex-llc/0705450072/WM14782-ND/3302409" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="G44" r:id="rId14" display="https://www.digikey.com/product-detail/en/molex-connector-corporation/0705450003/WM4186-ND/455677" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="G42" r:id="rId15" display="https://www.digikey.com/product-detail/en/molex-connector-corporation/0705450049/WM14780-ND/3302397" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="G45" r:id="rId16" display="https://www.digikey.com/product-detail/en/diodes-incorporated/LMV358SG-13/LMV358SG-13DICT-ND/2182572" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="G46" r:id="rId17" display="https://www.digikey.com/product-detail/en/microchip-technology/MIC5219-3.3YM5-TR/576-1281-1-ND/771902" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="G47" r:id="rId18" display="https://www.digikey.com/product-detail/en/mill-max-manufacturing-corp/310-43-163-41-105000/ED4164-63-ND/4455145" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="G48" r:id="rId19" display="https://www.digikey.com/product-detail/en/jst-sales-america-inc/S2B-XH-A-LF-SN/455-2257-ND/1651055" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="G50" r:id="rId20" display="https://www.digikey.com/product-detail/en/nexperia-usa-inc/PMEG4020ETP115/1727-1730-1-ND/4581267" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="G51" r:id="rId21" display="https://www.digikey.com/product-detail/en/stmicroelectronics/STWD100NYWY3F/497-10058-1-ND/2175107" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="G52" r:id="rId22" display="https://www.digikey.com/product-detail/en/texas-instruments/TCA9543ADR/296-42064-1-ND/5246241" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="G53" r:id="rId23" display="https://www.digikey.com/product-detail/en/stmicroelectronics/TS7211AILT/497-3046-1-ND/634884" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="G55" r:id="rId24" display="https://www.digikey.com/product-detail/en/wurth-electronics-inc/173950378/732-8242-5-ND/5725366" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="G54" r:id="rId25" display="https://www.digikey.com/product-detail/en/wurth-electronics-inc/173950578/732-8243-5-ND/5725367" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="G6" r:id="rId26" display="https://www.digikey.com/product-detail/en/yageo/RC0603FR-07100RL/311-100HRCT-ND/729835" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="G9" r:id="rId27" display="https://www.digikey.com/product-detail/en/yageo/RC0603FR-0710ML/311-10.0MHRCT-ND/729828" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="G10" r:id="rId28" display="https://www.digikey.com/product-detail/en/yageo/RC0603FR-0710RL/311-10.0HRCT-ND/729826" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="G15" r:id="rId29" display="https://www.digikey.com/product-detail/en/yageo/RC0603FR-0715KL/311-15.0KHRCT-ND/729900" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="G20" r:id="rId30" display="https://www.digikey.com/product-detail/en/yageo/RC0603FR-07232KL/311-232KHRCT-ND/730019" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="G21" r:id="rId31" display="https://www.digikey.com/product-detail/en/stackpole-electronics-inc/RMCF0603FT2R00/RMCF0603FT2R00CT-ND/6053160" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="G25" r:id="rId32" display="https://www.digikey.com/product-detail/en/yageo/RC0603FR-07300KL/311-300KHRCT-ND/730092" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="G31" r:id="rId33" display="https://www.digikey.com/product-detail/en/yageo/RC0603FR-075K1L/311-5.10KHRCT-ND/730215" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="G32" r:id="rId34" display="https://www.digikey.com/product-detail/en/stackpole-electronics-inc/RMCF0603FT4R99/RMCF0603FT4R99CT-ND/2418080" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="G35" r:id="rId35" display="https://www.digikey.com/product-detail/en/yageo/RC0603FR-0775KL/311-75.0KHRCT-ND/730325" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="G11" r:id="rId36" display="https://www.digikey.com/product-detail/en/yageo/RC1206FR-0710RL/311-10.0FRCT-ND/731429" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="G27" r:id="rId37" display="https://www.digikey.com/product-detail/en/yageo/PE2512FKE070R04L/YAG2155CT-ND/5139603" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="G23" r:id="rId38" display="https://www.digikey.com/product-detail/en/yageo/PA2512FKF070R002E/YAG2137CT-ND/5139585" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="G30" r:id="rId39" display="https://www.digikey.com/product-detail/en/yageo/CC1210KKX5R9BB475/311-3533-1-ND/7164554" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="G12" r:id="rId40" display="https://www.digikey.com/product-detail/en/yageo/CC1210ZKY5VGBB106/311-3546-1-ND/7164567" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="G28" r:id="rId41" display="https://www.digikey.com/product-detail/en/samsung-electro-mechanics/CL10B471KB8NNNC/1276-1094-1-ND/3889180" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="G19" r:id="rId42" display="https://www.digikey.com/product-detail/en/avx-corporation/06035A220JAT2A/478-1167-1-ND/564199" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="G24" r:id="rId43" display="https://www.digikey.com/product-detail/en/samsung-electro-mechanics/CL10A225KL8NNNC/1276-6726-1-ND/5961585" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
-    <hyperlink ref="G41" r:id="rId44" display="https://www.digikey.com/product-detail/en/wurth-electronics-inc/150060GS75000/732-4971-1-ND/4489896" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="G49" r:id="rId45" display="https://www.digikey.com/product-detail/en/wurth-electronics-inc/150060RS75000/732-4978-1-ND/4489899" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink ref="G36" r:id="rId46" display="https://www.digikey.com/product-detail/en/wurth-electronics-inc/150060BS75000/732-4966-1-ND/4489893" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="H2" r:id="rId1" display="https://www.digikey.com/product-detail/en/diodes-incorporated/MBR0580S1-7/MBR0580S1-7DICT-ND/5080371" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="H3" r:id="rId2" display="https://www.digikey.com/product-detail/en/micro-commercial-co/BAT750-TP/BAT750-TPMSCT-ND/7681652" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="H13" r:id="rId3" display="https://www.digikey.com/product-detail/en/murata-electronics-north-america/1264EY-100M=P3/490-10814-1-ND/5271556" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="H18" r:id="rId4" display="https://www.digikey.com/product-detail/en/on-semiconductor/NTR5103NT1G/NTR5103NT1GOSCT-ND/5801875" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="H26" r:id="rId5" display="https://www.digikey.com/product-detail/en/diodes-incorporated/DMP3099L-7/DMP3099L-7DICT-ND/5218217" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="H22" r:id="rId6" display="https://www.digikey.com/product-detail/en/jst-sales-america-inc/S3B-XH-SM4-TB-LF-SN/455-2263-1-ND/1651061" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="H33" r:id="rId7" display="https://www.digikey.com/product-detail/en/on-semiconductor/MC74VHC1G07DTT1G/MC74VHC1G07DTT1GOSCT-ND/1967117" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="H34" r:id="rId8" display="https://www.digikey.com/product-detail/en/texas-instruments/SN74LVC1G06DBVR/296-8483-1-ND/377451" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="H37" r:id="rId9" display="https://www.digikey.com/product-detail/en/texas-instruments/BQ24650RVAT/296-27699-1-ND/2352706" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="H38" r:id="rId10" display="https://www.digikey.com/product-detail/en/texas-instruments/BQ28Z610DRZT/296-43394-1-ND/5813465" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="H39" r:id="rId11" display="https://www.digikey.com/product-detail/en/diodes-incorporated/DMN6040SSD-13/DMN6040SSD-13DICT-ND/3481122" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="H40" r:id="rId12" display="https://www.digikey.com/product-detail/en/diodes-incorporated/DMP4047SSD-13/DMP4047SSD-13DICT-ND/5147416" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="H43" r:id="rId13" display="https://www.digikey.com/product-detail/en/molex-llc/0705450072/WM14782-ND/3302409" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="H44" r:id="rId14" display="https://www.digikey.com/product-detail/en/molex-connector-corporation/0705450003/WM4186-ND/455677" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="H42" r:id="rId15" display="https://www.digikey.com/product-detail/en/molex-connector-corporation/0705450049/WM14780-ND/3302397" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="H45" r:id="rId16" display="https://www.digikey.com/product-detail/en/diodes-incorporated/LMV358SG-13/LMV358SG-13DICT-ND/2182572" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="H46" r:id="rId17" display="https://www.digikey.com/product-detail/en/microchip-technology/MIC5219-3.3YM5-TR/576-1281-1-ND/771902" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="H47" r:id="rId18" display="https://www.digikey.com/product-detail/en/mill-max-manufacturing-corp/310-43-163-41-105000/ED4164-63-ND/4455145" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="H48" r:id="rId19" display="https://www.digikey.com/product-detail/en/jst-sales-america-inc/S2B-XH-A-LF-SN/455-2257-ND/1651055" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="H50" r:id="rId20" display="https://www.digikey.com/product-detail/en/nexperia-usa-inc/PMEG4020ETP115/1727-1730-1-ND/4581267" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="H51" r:id="rId21" display="https://www.digikey.com/product-detail/en/stmicroelectronics/STWD100NYWY3F/497-10058-1-ND/2175107" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="H52" r:id="rId22" display="https://www.digikey.com/product-detail/en/texas-instruments/TCA9543ADR/296-42064-1-ND/5246241" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="H53" r:id="rId23" display="https://www.digikey.com/product-detail/en/stmicroelectronics/TS7211AILT/497-3046-1-ND/634884" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="H55" r:id="rId24" display="https://www.digikey.com/product-detail/en/wurth-electronics-inc/173950378/732-8242-5-ND/5725366" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="H54" r:id="rId25" display="https://www.digikey.com/product-detail/en/wurth-electronics-inc/173950578/732-8243-5-ND/5725367" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="H6" r:id="rId26" display="https://www.digikey.com/product-detail/en/yageo/RC0603FR-07100RL/311-100HRCT-ND/729835" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="H9" r:id="rId27" display="https://www.digikey.com/product-detail/en/yageo/RC0603FR-0710ML/311-10.0MHRCT-ND/729828" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="H10" r:id="rId28" display="https://www.digikey.com/product-detail/en/yageo/RC0603FR-0710RL/311-10.0HRCT-ND/729826" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="H15" r:id="rId29" display="https://www.digikey.com/product-detail/en/yageo/RC0603FR-0715KL/311-15.0KHRCT-ND/729900" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="H20" r:id="rId30" display="https://www.digikey.com/product-detail/en/yageo/RC0603FR-07232KL/311-232KHRCT-ND/730019" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="H21" r:id="rId31" display="https://www.digikey.com/product-detail/en/stackpole-electronics-inc/RMCF0603FT2R00/RMCF0603FT2R00CT-ND/6053160" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="H25" r:id="rId32" display="https://www.digikey.com/product-detail/en/yageo/RC0603FR-07300KL/311-300KHRCT-ND/730092" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="H31" r:id="rId33" display="https://www.digikey.com/product-detail/en/yageo/RC0603FR-075K1L/311-5.10KHRCT-ND/730215" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="H32" r:id="rId34" display="https://www.digikey.com/product-detail/en/stackpole-electronics-inc/RMCF0603FT4R99/RMCF0603FT4R99CT-ND/2418080" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="H35" r:id="rId35" display="https://www.digikey.com/product-detail/en/yageo/RC0603FR-0775KL/311-75.0KHRCT-ND/730325" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="H11" r:id="rId36" display="https://www.digikey.com/product-detail/en/yageo/RC1206FR-0710RL/311-10.0FRCT-ND/731429" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="H27" r:id="rId37" display="https://www.digikey.com/product-detail/en/yageo/PE2512FKE070R04L/YAG2155CT-ND/5139603" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="H23" r:id="rId38" display="https://www.digikey.com/product-detail/en/yageo/PA2512FKF070R002E/YAG2137CT-ND/5139585" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="H30" r:id="rId39" display="https://www.digikey.com/product-detail/en/yageo/CC1210KKX5R9BB475/311-3533-1-ND/7164554" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="H12" r:id="rId40" display="https://www.digikey.com/product-detail/en/yageo/CC1210ZKY5VGBB106/311-3546-1-ND/7164567" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="H28" r:id="rId41" display="https://www.digikey.com/product-detail/en/samsung-electro-mechanics/CL10B471KB8NNNC/1276-1094-1-ND/3889180" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="H19" r:id="rId42" display="https://www.digikey.com/product-detail/en/avx-corporation/06035A220JAT2A/478-1167-1-ND/564199" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="H24" r:id="rId43" display="https://www.digikey.com/product-detail/en/samsung-electro-mechanics/CL10A225KL8NNNC/1276-6726-1-ND/5961585" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="H41" r:id="rId44" display="https://www.digikey.com/product-detail/en/wurth-electronics-inc/150060GS75000/732-4971-1-ND/4489896" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="H49" r:id="rId45" display="https://www.digikey.com/product-detail/en/wurth-electronics-inc/150060RS75000/732-4978-1-ND/4489899" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="H36" r:id="rId46" display="https://www.digikey.com/product-detail/en/wurth-electronics-inc/150060BS75000/732-4966-1-ND/4489893" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId47"/>
